--- a/data/long_bre/BESCORE_R-Urba-long_bre.xlsx
+++ b/data/long_bre/BESCORE_R-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1530,7 +1530,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1750,7 +1750,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1864,7 +1864,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
